--- a/Docs/DecisionTable.xlsx
+++ b/Docs/DecisionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\CIS612\BrickBreaker\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701E84E0-BEBD-438A-9AC0-36880FF53A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB83D1D-E427-440C-A971-ABDF0C1728BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2D1B4363-860B-4C69-A120-DC44FE0F972F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="51">
   <si>
     <t>Rule 1</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Speed at Max</t>
+  </si>
+  <si>
+    <t>Increase Score By 5</t>
+  </si>
+  <si>
+    <t>Game Lost</t>
   </si>
 </sst>
 </file>
@@ -791,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2EC626-510A-4634-8331-E4C1BFF7DA15}">
-  <dimension ref="B2:P59"/>
+  <dimension ref="B2:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1688,243 +1694,223 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
+    <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="O28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P28" s="6" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P31" s="14" t="s">
+      <c r="C31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>29</v>
@@ -1939,10 +1925,10 @@
         <v>8</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>29</v>
@@ -1971,156 +1957,180 @@
     </row>
     <row r="33" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P33" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P34" s="11"/>
-    </row>
-    <row r="35" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" s="11"/>
     </row>
     <row r="36" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="2"/>
@@ -2128,14 +2138,14 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="I38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2143,26 +2153,22 @@
     </row>
     <row r="39" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2170,7 +2176,7 @@
     </row>
     <row r="40" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="2"/>
@@ -2181,9 +2187,13 @@
       <c r="G40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -2193,16 +2203,18 @@
     </row>
     <row r="41" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -2214,18 +2226,18 @@
     </row>
     <row r="42" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -2233,377 +2245,375 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
     <row r="44" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L46" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="M46" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="N46" s="6" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L48" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M48" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N48" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M49" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N49" s="14" t="s">
+      <c r="C49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L50" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M50" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N50" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="9" t="s">
+      <c r="C52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N51" s="11"/>
-    </row>
-    <row r="52" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N53" s="11"/>
     </row>
     <row r="54" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -2611,40 +2621,46 @@
     </row>
     <row r="55" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="6" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="I55" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="J56" s="2" t="s">
         <v>6</v>
       </c>
@@ -2655,39 +2671,43 @@
     </row>
     <row r="57" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="K57" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -2695,22 +2715,570 @@
     </row>
     <row r="59" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
-      <c r="J59" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N71" s="11"/>
+    </row>
+    <row r="72" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
